--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col1a1-Cd36.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col1a1-Cd36.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.108069666666667</v>
+        <v>26.81310566666667</v>
       </c>
       <c r="H2">
-        <v>27.324209</v>
+        <v>80.439317</v>
       </c>
       <c r="I2">
-        <v>0.00155006418458712</v>
+        <v>0.004518206005002021</v>
       </c>
       <c r="J2">
-        <v>0.00155006418458712</v>
+        <v>0.004518206005002021</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>417.3096593333333</v>
+        <v>576.300578</v>
       </c>
       <c r="N2">
-        <v>1251.928978</v>
+        <v>1728.901734</v>
       </c>
       <c r="O2">
-        <v>0.8277575129472603</v>
+        <v>0.8614732012478776</v>
       </c>
       <c r="P2">
-        <v>0.8277575129472603</v>
+        <v>0.8614732012478775</v>
       </c>
       <c r="Q2">
-        <v>3800.885449780933</v>
+        <v>15452.40829367508</v>
       </c>
       <c r="R2">
-        <v>34207.9690480284</v>
+        <v>139071.6746430757</v>
       </c>
       <c r="S2">
-        <v>0.001283077274342457</v>
+        <v>0.003892313391026475</v>
       </c>
       <c r="T2">
-        <v>0.001283077274342457</v>
+        <v>0.003892313391026475</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.108069666666667</v>
+        <v>26.81310566666667</v>
       </c>
       <c r="H3">
-        <v>27.324209</v>
+        <v>80.439317</v>
       </c>
       <c r="I3">
-        <v>0.00155006418458712</v>
+        <v>0.004518206005002021</v>
       </c>
       <c r="J3">
-        <v>0.00155006418458712</v>
+        <v>0.004518206005002021</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>3.584446</v>
       </c>
       <c r="O3">
-        <v>0.002369984366839822</v>
+        <v>0.001786049553652741</v>
       </c>
       <c r="P3">
-        <v>0.002369984366839822</v>
+        <v>0.001786049553652741</v>
       </c>
       <c r="Q3">
-        <v>10.88246129480156</v>
+        <v>32.03670978482022</v>
       </c>
       <c r="R3">
-        <v>97.942151653214</v>
+        <v>288.330388063382</v>
       </c>
       <c r="S3">
-        <v>3.673627885069791E-06</v>
+        <v>8.069739818544993E-06</v>
       </c>
       <c r="T3">
-        <v>3.67362788506979E-06</v>
+        <v>8.069739818544991E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.108069666666667</v>
+        <v>26.81310566666667</v>
       </c>
       <c r="H4">
-        <v>27.324209</v>
+        <v>80.439317</v>
       </c>
       <c r="I4">
-        <v>0.00155006418458712</v>
+        <v>0.004518206005002021</v>
       </c>
       <c r="J4">
-        <v>0.00155006418458712</v>
+        <v>0.004518206005002021</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>26.67269233333333</v>
+        <v>34.99993866666667</v>
       </c>
       <c r="N4">
-        <v>80.01807700000001</v>
+        <v>104.999816</v>
       </c>
       <c r="O4">
-        <v>0.05290680667377473</v>
+        <v>0.05231906813505349</v>
       </c>
       <c r="P4">
-        <v>0.05290680667377473</v>
+        <v>0.05231906813505348</v>
       </c>
       <c r="Q4">
-        <v>242.9367399695659</v>
+        <v>938.4570537961858</v>
       </c>
       <c r="R4">
-        <v>2186.430659726093</v>
+        <v>8446.113484165671</v>
       </c>
       <c r="S4">
-        <v>8.200894614589302E-05</v>
+        <v>0.0002363883278239085</v>
       </c>
       <c r="T4">
-        <v>8.200894614589303E-05</v>
+        <v>0.0002363883278239085</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.108069666666667</v>
+        <v>26.81310566666667</v>
       </c>
       <c r="H5">
-        <v>27.324209</v>
+        <v>80.439317</v>
       </c>
       <c r="I5">
-        <v>0.00155006418458712</v>
+        <v>0.004518206005002021</v>
       </c>
       <c r="J5">
-        <v>0.00155006418458712</v>
+        <v>0.004518206005002021</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>58.96764933333333</v>
+        <v>56.47565533333333</v>
       </c>
       <c r="N5">
-        <v>176.902948</v>
+        <v>169.426966</v>
       </c>
       <c r="O5">
-        <v>0.1169656960121252</v>
+        <v>0.08442168106341624</v>
       </c>
       <c r="P5">
-        <v>0.1169656960121252</v>
+        <v>0.08442168106341623</v>
       </c>
       <c r="Q5">
-        <v>537.0814582075702</v>
+        <v>1514.287714046914</v>
       </c>
       <c r="R5">
-        <v>4833.733123868132</v>
+        <v>13628.58942642222</v>
       </c>
       <c r="S5">
-        <v>0.0001813043362136997</v>
+        <v>0.0003814345463330926</v>
       </c>
       <c r="T5">
-        <v>0.0001813043362136998</v>
+        <v>0.0003814345463330926</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5771.873535333332</v>
+        <v>5771.873535333333</v>
       </c>
       <c r="H6">
         <v>17315.620606</v>
       </c>
       <c r="I6">
-        <v>0.9822909543423312</v>
+        <v>0.9726032482643521</v>
       </c>
       <c r="J6">
-        <v>0.9822909543423313</v>
+        <v>0.9726032482643523</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>417.3096593333333</v>
+        <v>576.300578</v>
       </c>
       <c r="N6">
-        <v>1251.928978</v>
+        <v>1728.901734</v>
       </c>
       <c r="O6">
-        <v>0.8277575129472603</v>
+        <v>0.8614732012478776</v>
       </c>
       <c r="P6">
-        <v>0.8277575129472603</v>
+        <v>0.8614732012478775</v>
       </c>
       <c r="Q6">
-        <v>2408658.578745035</v>
+        <v>3326334.054555503</v>
       </c>
       <c r="R6">
-        <v>21677927.20870531</v>
+        <v>29937006.49099953</v>
       </c>
       <c r="S6">
-        <v>0.8130987173569989</v>
+        <v>0.8378716338263756</v>
       </c>
       <c r="T6">
-        <v>0.8130987173569989</v>
+        <v>0.8378716338263758</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5771.873535333332</v>
+        <v>5771.873535333333</v>
       </c>
       <c r="H7">
         <v>17315.620606</v>
       </c>
       <c r="I7">
-        <v>0.9822909543423312</v>
+        <v>0.9726032482643521</v>
       </c>
       <c r="J7">
-        <v>0.9822909543423313</v>
+        <v>0.9726032482643523</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>3.584446</v>
       </c>
       <c r="O7">
-        <v>0.002369984366839822</v>
+        <v>0.001786049553652741</v>
       </c>
       <c r="P7">
-        <v>0.002369984366839822</v>
+        <v>0.001786049553652741</v>
       </c>
       <c r="Q7">
-        <v>6896.323002077141</v>
+        <v>6896.323002077142</v>
       </c>
       <c r="R7">
-        <v>62066.90701869426</v>
+        <v>62066.90701869428</v>
       </c>
       <c r="S7">
-        <v>0.002328014205479494</v>
+        <v>0.001737117597443752</v>
       </c>
       <c r="T7">
-        <v>0.002328014205479494</v>
+        <v>0.001737117597443752</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5771.873535333332</v>
+        <v>5771.873535333333</v>
       </c>
       <c r="H8">
         <v>17315.620606</v>
       </c>
       <c r="I8">
-        <v>0.9822909543423312</v>
+        <v>0.9726032482643521</v>
       </c>
       <c r="J8">
-        <v>0.9822909543423313</v>
+        <v>0.9726032482643523</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>26.67269233333333</v>
+        <v>34.99993866666667</v>
       </c>
       <c r="N8">
-        <v>80.01807700000001</v>
+        <v>104.999816</v>
       </c>
       <c r="O8">
-        <v>0.05290680667377473</v>
+        <v>0.05231906813505349</v>
       </c>
       <c r="P8">
-        <v>0.05290680667377473</v>
+        <v>0.05231906813505348</v>
       </c>
       <c r="Q8">
-        <v>153951.4069948549</v>
+        <v>202015.2197284232</v>
       </c>
       <c r="R8">
-        <v>1385562.662953695</v>
+        <v>1818136.977555808</v>
       </c>
       <c r="S8">
-        <v>0.05196987761878739</v>
+        <v>0.05088569561431697</v>
       </c>
       <c r="T8">
-        <v>0.0519698776187874</v>
+        <v>0.05088569561431698</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5771.873535333332</v>
+        <v>5771.873535333333</v>
       </c>
       <c r="H9">
         <v>17315.620606</v>
       </c>
       <c r="I9">
-        <v>0.9822909543423312</v>
+        <v>0.9726032482643521</v>
       </c>
       <c r="J9">
-        <v>0.9822909543423313</v>
+        <v>0.9726032482643523</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>58.96764933333333</v>
+        <v>56.47565533333333</v>
       </c>
       <c r="N9">
-        <v>176.902948</v>
+        <v>169.426966</v>
       </c>
       <c r="O9">
-        <v>0.1169656960121252</v>
+        <v>0.08442168106341624</v>
       </c>
       <c r="P9">
-        <v>0.1169656960121252</v>
+        <v>0.08442168106341623</v>
       </c>
       <c r="Q9">
-        <v>340353.8146278829</v>
+        <v>325970.3404090735</v>
       </c>
       <c r="R9">
-        <v>3063184.331650946</v>
+        <v>2933733.063681661</v>
       </c>
       <c r="S9">
-        <v>0.1148943451610654</v>
+        <v>0.08210880122621578</v>
       </c>
       <c r="T9">
-        <v>0.1148943451610654</v>
+        <v>0.08210880122621578</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>93.677025</v>
+        <v>132.4457753333333</v>
       </c>
       <c r="H10">
-        <v>281.031075</v>
+        <v>397.337326</v>
       </c>
       <c r="I10">
-        <v>0.01594250007799006</v>
+        <v>0.02231808970163987</v>
       </c>
       <c r="J10">
-        <v>0.01594250007799006</v>
+        <v>0.02231808970163988</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>417.3096593333333</v>
+        <v>576.300578</v>
       </c>
       <c r="N10">
-        <v>1251.928978</v>
+        <v>1728.901734</v>
       </c>
       <c r="O10">
-        <v>0.8277575129472603</v>
+        <v>0.8614732012478776</v>
       </c>
       <c r="P10">
-        <v>0.8277575129472603</v>
+        <v>0.8614732012478775</v>
       </c>
       <c r="Q10">
-        <v>39092.32739011015</v>
+        <v>76328.57687825814</v>
       </c>
       <c r="R10">
-        <v>351830.9465109913</v>
+        <v>686957.1919043233</v>
       </c>
       <c r="S10">
-        <v>0.01319652421471856</v>
+        <v>0.01922643618100899</v>
       </c>
       <c r="T10">
-        <v>0.01319652421471856</v>
+        <v>0.01922643618100899</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>93.677025</v>
+        <v>132.4457753333333</v>
       </c>
       <c r="H11">
-        <v>281.031075</v>
+        <v>397.337326</v>
       </c>
       <c r="I11">
-        <v>0.01594250007799006</v>
+        <v>0.02231808970163987</v>
       </c>
       <c r="J11">
-        <v>0.01594250007799006</v>
+        <v>0.02231808970163988</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>3.584446</v>
       </c>
       <c r="O11">
-        <v>0.002369984366839822</v>
+        <v>0.001786049553652741</v>
       </c>
       <c r="P11">
-        <v>0.002369984366839822</v>
+        <v>0.001786049553652741</v>
       </c>
       <c r="Q11">
-        <v>111.92674585105</v>
+        <v>158.2482432034884</v>
       </c>
       <c r="R11">
-        <v>1007.34071265945</v>
+        <v>1424.234188831396</v>
       </c>
       <c r="S11">
-        <v>3.778347595317909E-05</v>
+        <v>3.986121414999573E-05</v>
       </c>
       <c r="T11">
-        <v>3.778347595317908E-05</v>
+        <v>3.986121414999573E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>93.677025</v>
+        <v>132.4457753333333</v>
       </c>
       <c r="H12">
-        <v>281.031075</v>
+        <v>397.337326</v>
       </c>
       <c r="I12">
-        <v>0.01594250007799006</v>
+        <v>0.02231808970163987</v>
       </c>
       <c r="J12">
-        <v>0.01594250007799006</v>
+        <v>0.02231808970163988</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>26.67269233333333</v>
+        <v>34.99993866666667</v>
       </c>
       <c r="N12">
-        <v>80.01807700000001</v>
+        <v>104.999816</v>
       </c>
       <c r="O12">
-        <v>0.05290680667377473</v>
+        <v>0.05231906813505349</v>
       </c>
       <c r="P12">
-        <v>0.05290680667377473</v>
+        <v>0.05231906813505348</v>
       </c>
       <c r="Q12">
-        <v>2498.618466526975</v>
+        <v>4635.594013325779</v>
       </c>
       <c r="R12">
-        <v>22487.56619874277</v>
+        <v>41720.34611993202</v>
       </c>
       <c r="S12">
-        <v>0.0008434667695228587</v>
+        <v>0.001167661655744332</v>
       </c>
       <c r="T12">
-        <v>0.0008434667695228587</v>
+        <v>0.001167661655744332</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>93.677025</v>
+        <v>132.4457753333333</v>
       </c>
       <c r="H13">
-        <v>281.031075</v>
+        <v>397.337326</v>
       </c>
       <c r="I13">
-        <v>0.01594250007799006</v>
+        <v>0.02231808970163987</v>
       </c>
       <c r="J13">
-        <v>0.01594250007799006</v>
+        <v>0.02231808970163988</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>58.96764933333333</v>
+        <v>56.47565533333333</v>
       </c>
       <c r="N13">
-        <v>176.902948</v>
+        <v>169.426966</v>
       </c>
       <c r="O13">
-        <v>0.1169656960121252</v>
+        <v>0.08442168106341624</v>
       </c>
       <c r="P13">
-        <v>0.1169656960121252</v>
+        <v>0.08442168106341623</v>
       </c>
       <c r="Q13">
-        <v>5523.9139607899</v>
+        <v>7479.961958081434</v>
       </c>
       <c r="R13">
-        <v>49715.2256471091</v>
+        <v>67319.65762273292</v>
       </c>
       <c r="S13">
-        <v>0.001864725617795467</v>
+        <v>0.001884130650736556</v>
       </c>
       <c r="T13">
-        <v>0.001864725617795467</v>
+        <v>0.001884130650736556</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.272029666666667</v>
+        <v>3.326003</v>
       </c>
       <c r="H14">
-        <v>3.816089</v>
+        <v>9.978009</v>
       </c>
       <c r="I14">
-        <v>0.0002164813950916887</v>
+        <v>0.0005604560290058679</v>
       </c>
       <c r="J14">
-        <v>0.0002164813950916888</v>
+        <v>0.000560456029005868</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>417.3096593333333</v>
+        <v>576.300578</v>
       </c>
       <c r="N14">
-        <v>1251.928978</v>
+        <v>1728.901734</v>
       </c>
       <c r="O14">
-        <v>0.8277575129472603</v>
+        <v>0.8614732012478776</v>
       </c>
       <c r="P14">
-        <v>0.8277575129472603</v>
+        <v>0.8614732012478775</v>
       </c>
       <c r="Q14">
-        <v>530.8302668585601</v>
+        <v>1916.777451329734</v>
       </c>
       <c r="R14">
-        <v>4777.472401727042</v>
+        <v>17250.99706196761</v>
       </c>
       <c r="S14">
-        <v>0.0001791941012004495</v>
+        <v>0.0004828178494663584</v>
       </c>
       <c r="T14">
-        <v>0.0001791941012004495</v>
+        <v>0.0004828178494663584</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.272029666666667</v>
+        <v>3.326003</v>
       </c>
       <c r="H15">
-        <v>3.816089</v>
+        <v>9.978009</v>
       </c>
       <c r="I15">
-        <v>0.0002164813950916887</v>
+        <v>0.0005604560290058679</v>
       </c>
       <c r="J15">
-        <v>0.0002164813950916888</v>
+        <v>0.000560456029005868</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>3.584446</v>
       </c>
       <c r="O15">
-        <v>0.002369984366839822</v>
+        <v>0.001786049553652741</v>
       </c>
       <c r="P15">
-        <v>0.002369984366839822</v>
+        <v>0.001786049553652741</v>
       </c>
       <c r="Q15">
-        <v>1.519840550188222</v>
+        <v>3.973959383112667</v>
       </c>
       <c r="R15">
-        <v>13.678564951694</v>
+        <v>35.765634448014</v>
       </c>
       <c r="S15">
-        <v>5.130575220789773E-07</v>
+        <v>1.001002240447918E-06</v>
       </c>
       <c r="T15">
-        <v>5.130575220789773E-07</v>
+        <v>1.001002240447918E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.272029666666667</v>
+        <v>3.326003</v>
       </c>
       <c r="H16">
-        <v>3.816089</v>
+        <v>9.978009</v>
       </c>
       <c r="I16">
-        <v>0.0002164813950916887</v>
+        <v>0.0005604560290058679</v>
       </c>
       <c r="J16">
-        <v>0.0002164813950916888</v>
+        <v>0.000560456029005868</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>26.67269233333333</v>
+        <v>34.99993866666667</v>
       </c>
       <c r="N16">
-        <v>80.01807700000001</v>
+        <v>104.999816</v>
       </c>
       <c r="O16">
-        <v>0.05290680667377473</v>
+        <v>0.05231906813505349</v>
       </c>
       <c r="P16">
-        <v>0.05290680667377473</v>
+        <v>0.05231906813505348</v>
       </c>
       <c r="Q16">
-        <v>33.92845593787256</v>
+        <v>116.4099010051493</v>
       </c>
       <c r="R16">
-        <v>305.356103440853</v>
+        <v>1047.689109046344</v>
       </c>
       <c r="S16">
-        <v>1.145333931858502E-05</v>
+        <v>2.932253716825951E-05</v>
       </c>
       <c r="T16">
-        <v>1.145333931858502E-05</v>
+        <v>2.932253716825952E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.272029666666667</v>
+        <v>3.326003</v>
       </c>
       <c r="H17">
-        <v>3.816089</v>
+        <v>9.978009</v>
       </c>
       <c r="I17">
-        <v>0.0002164813950916887</v>
+        <v>0.0005604560290058679</v>
       </c>
       <c r="J17">
-        <v>0.0002164813950916888</v>
+        <v>0.000560456029005868</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>58.96764933333333</v>
+        <v>56.47565533333333</v>
       </c>
       <c r="N17">
-        <v>176.902948</v>
+        <v>169.426966</v>
       </c>
       <c r="O17">
-        <v>0.1169656960121252</v>
+        <v>0.08442168106341624</v>
       </c>
       <c r="P17">
-        <v>0.1169656960121252</v>
+        <v>0.08442168106341623</v>
       </c>
       <c r="Q17">
-        <v>75.00859932559689</v>
+        <v>187.8381990656327</v>
       </c>
       <c r="R17">
-        <v>675.077393930372</v>
+        <v>1690.543791590694</v>
       </c>
       <c r="S17">
-        <v>2.532089705057523E-05</v>
+        <v>4.731464013080214E-05</v>
       </c>
       <c r="T17">
-        <v>2.532089705057523E-05</v>
+        <v>4.731464013080214E-05</v>
       </c>
     </row>
   </sheetData>
